--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22924"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="410" documentId="11_3E21DB30A2484D11841266A29219685ED151E7F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2BAB5E30-8455-476F-8081-F02C86B7229A}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="11_3E21DB30A2484D11841266A29219685ED151E7F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{694DE87E-C614-4050-BD62-95C7F26B3A64}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="122">
   <si>
     <t>改定履歴</t>
   </si>
@@ -599,7 +599,7 @@
     <t>ユーザーid</t>
   </si>
   <si>
-    <t>user_id</t>
+    <t>id</t>
   </si>
   <si>
     <t>int</t>
@@ -641,7 +641,7 @@
     <t>自己紹介</t>
   </si>
   <si>
-    <t>self_info</t>
+    <t>self_intro</t>
   </si>
   <si>
     <t>勤務先電話番号</t>
@@ -710,6 +710,9 @@
     <t>PK/FK</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
     <t>参加日時</t>
   </si>
   <si>
@@ -725,19 +728,16 @@
     <t>チャット名</t>
   </si>
   <si>
-    <t>chat_name</t>
-  </si>
-  <si>
     <t>概要</t>
   </si>
   <si>
-    <t>chat_detail</t>
+    <t>detail</t>
   </si>
   <si>
     <t>ファイル送信許可フラグ</t>
   </si>
   <si>
-    <t>file_send</t>
+    <t>is_sent</t>
   </si>
   <si>
     <t>1.送信不可</t>
@@ -746,7 +746,7 @@
     <t>ダイレクトチャットフラグ</t>
   </si>
   <si>
-    <t>direct_chat</t>
+    <t>is_directed</t>
   </si>
   <si>
     <t>1.ダイレクトチャット</t>
@@ -764,13 +764,7 @@
     <t>タスクid</t>
   </si>
   <si>
-    <t>task_id</t>
-  </si>
-  <si>
     <t>タスク内容</t>
-  </si>
-  <si>
-    <t>task_detail</t>
   </si>
   <si>
     <t>担当者id</t>
@@ -800,13 +794,7 @@
     <t>投稿id</t>
   </si>
   <si>
-    <t>post_id</t>
-  </si>
-  <si>
     <t>投稿内容</t>
-  </si>
-  <si>
-    <t>post_detail</t>
   </si>
   <si>
     <t>投稿ユーザーid</t>
@@ -815,13 +803,10 @@
     <t>投稿日時</t>
   </si>
   <si>
-    <t>posted_at</t>
-  </si>
-  <si>
     <t>添付ファイル名</t>
   </si>
   <si>
-    <t>add_file</t>
+    <t>added_file</t>
   </si>
 </sst>
 </file>
@@ -32561,8 +32546,8 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36:D36"/>
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -33061,7 +33046,7 @@
         <v>51</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>59</v>
@@ -33087,10 +33072,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>79</v>
@@ -33109,7 +33094,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -33126,7 +33111,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -33162,7 +33147,7 @@
         <v>86</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>53</v>
@@ -33188,10 +33173,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>59</v>
@@ -33477,7 +33462,7 @@
         <v>106</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>53</v>
@@ -33530,10 +33515,10 @@
         <v>3</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>59</v>
@@ -33555,10 +33540,10 @@
         <v>4</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>53</v>
@@ -33582,10 +33567,10 @@
         <v>5</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>79</v>
@@ -33603,10 +33588,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>73</v>
@@ -33621,7 +33606,7 @@
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
@@ -33758,7 +33743,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
@@ -33775,7 +33760,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
@@ -33808,10 +33793,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>53</v>
@@ -33864,10 +33849,10 @@
         <v>3</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>59</v>
@@ -33889,10 +33874,10 @@
         <v>4</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>53</v>
@@ -33916,10 +33901,10 @@
         <v>5</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>79</v>
@@ -34018,10 +34003,10 @@
         <v>9</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E61" s="14" t="s">
         <v>59</v>

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22924"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="423" documentId="11_3E21DB30A2484D11841266A29219685ED151E7F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{694DE87E-C614-4050-BD62-95C7F26B3A64}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="11_3E21DB30A2484D11841266A29219685ED151E7F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5E498AF0-92F6-4098-BE03-7833CED1D458}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
-    <sheet name="記入例" sheetId="3" r:id="rId2"/>
-    <sheet name="テンプレート" sheetId="2" r:id="rId3"/>
+    <sheet name="テンプレート" sheetId="2" r:id="rId1"/>
+    <sheet name="改訂履歴" sheetId="1" r:id="rId2"/>
+    <sheet name="記入例" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,63 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="122">
-  <si>
-    <t>改定履歴</t>
-  </si>
-  <si>
-    <t>日付</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="121">
   <si>
     <t>テーブル名</t>
   </si>
   <si>
-    <t>アクション</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>編集者</t>
-  </si>
-  <si>
-    <t>テンプレート作成</t>
-  </si>
-  <si>
-    <t>alcoder</t>
-  </si>
-  <si>
-    <t>table_names</t>
-    <phoneticPr fontId="6"/>
+    <t>users</t>
   </si>
   <si>
     <t>役割</t>
   </si>
   <si>
-    <t>テーブルに関する情報を保持するテーブル</t>
-    <rPh sb="5" eb="6">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
+    <t>ユーザーに関する情報を保持するテーブル</t>
   </si>
   <si>
     <t>備考</t>
-  </si>
-  <si>
-    <t>備考があれば記入する</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>#</t>
@@ -208,6 +166,264 @@
   </si>
   <si>
     <t>その他設定</t>
+  </si>
+  <si>
+    <t>ユーザーid</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>auto_increment</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>表示名</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>自己紹介</t>
+  </si>
+  <si>
+    <t>self_intro</t>
+  </si>
+  <si>
+    <t>勤務先電話番号</t>
+  </si>
+  <si>
+    <t>company_phone</t>
+  </si>
+  <si>
+    <t>携帯電話番号</t>
+  </si>
+  <si>
+    <t>cell_phone</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>1.削除済み</t>
+  </si>
+  <si>
+    <t>作成ユーザーid</t>
+  </si>
+  <si>
+    <t>create_user_id</t>
+  </si>
+  <si>
+    <t>作成日時</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>更新ユーザーid</t>
+  </si>
+  <si>
+    <t>update_user_id</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>chat_members</t>
+  </si>
+  <si>
+    <t>チャットルームに参加しているユーザーに関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>チャットルームid</t>
+  </si>
+  <si>
+    <t>chat_id</t>
+  </si>
+  <si>
+    <t>PK/FK</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>参加日時</t>
+  </si>
+  <si>
+    <t>join_time</t>
+  </si>
+  <si>
+    <t>chat_rooms</t>
+  </si>
+  <si>
+    <t>チャットルームに関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>チャット名</t>
+  </si>
+  <si>
+    <t>概要</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>ファイル送信許可フラグ</t>
+  </si>
+  <si>
+    <t>is_sent</t>
+  </si>
+  <si>
+    <t>1.送信可</t>
+  </si>
+  <si>
+    <t>ダイレクトチャットフラグ</t>
+  </si>
+  <si>
+    <t>is_directed</t>
+  </si>
+  <si>
+    <t>1.ダイレクトチャット</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>タスクに関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>タスクid</t>
+  </si>
+  <si>
+    <t>タスク内容</t>
+  </si>
+  <si>
+    <t>担当者id</t>
+  </si>
+  <si>
+    <t>期限日時</t>
+  </si>
+  <si>
+    <t>limited_time</t>
+  </si>
+  <si>
+    <t>完了フラグ</t>
+  </si>
+  <si>
+    <t>is_completed</t>
+  </si>
+  <si>
+    <t>1.完了済み</t>
+  </si>
+  <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>投稿に関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>投稿id</t>
+  </si>
+  <si>
+    <t>投稿内容</t>
+  </si>
+  <si>
+    <t>投稿ユーザーid</t>
+  </si>
+  <si>
+    <t>投稿日時</t>
+  </si>
+  <si>
+    <t>添付ファイル名</t>
+  </si>
+  <si>
+    <t>added_file</t>
+  </si>
+  <si>
+    <t>改定履歴</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>アクション</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>編集者</t>
+  </si>
+  <si>
+    <t>テンプレート作成</t>
+  </si>
+  <si>
+    <t>alcoder</t>
+  </si>
+  <si>
+    <t>table_names</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テーブルに関する情報を保持するテーブル</t>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>備考があれば記入する</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -589,225 +805,6 @@
     <t>int</t>
     <phoneticPr fontId="6"/>
   </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>ユーザーに関する情報を保持するテーブル</t>
-  </si>
-  <si>
-    <t>ユーザーid</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>auto_increment</t>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>表示名</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>自己紹介</t>
-  </si>
-  <si>
-    <t>self_intro</t>
-  </si>
-  <si>
-    <t>勤務先電話番号</t>
-  </si>
-  <si>
-    <t>company_phone</t>
-  </si>
-  <si>
-    <t>携帯電話番号</t>
-  </si>
-  <si>
-    <t>cellphone</t>
-  </si>
-  <si>
-    <t>削除フラグ</t>
-  </si>
-  <si>
-    <t>is_deleted</t>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>1.削除済み</t>
-  </si>
-  <si>
-    <t>作成ユーザーid</t>
-  </si>
-  <si>
-    <t>create_user_id</t>
-  </si>
-  <si>
-    <t>作成日時</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>更新ユーザーid</t>
-  </si>
-  <si>
-    <t>update_user_id</t>
-  </si>
-  <si>
-    <t>更新日時</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>chat_members</t>
-  </si>
-  <si>
-    <t>チャットルームに参加しているユーザーに関する情報を保持するテーブル</t>
-  </si>
-  <si>
-    <t>チャットルームid</t>
-  </si>
-  <si>
-    <t>chat_id</t>
-  </si>
-  <si>
-    <t>PK/FK</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>参加日時</t>
-  </si>
-  <si>
-    <t>join_time</t>
-  </si>
-  <si>
-    <t>chat_rooms</t>
-  </si>
-  <si>
-    <t>チャットルームに関する情報を保持するテーブル</t>
-  </si>
-  <si>
-    <t>チャット名</t>
-  </si>
-  <si>
-    <t>概要</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>ファイル送信許可フラグ</t>
-  </si>
-  <si>
-    <t>is_sent</t>
-  </si>
-  <si>
-    <t>1.送信不可</t>
-  </si>
-  <si>
-    <t>ダイレクトチャットフラグ</t>
-  </si>
-  <si>
-    <t>is_directed</t>
-  </si>
-  <si>
-    <t>1.ダイレクトチャット</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>tasks</t>
-  </si>
-  <si>
-    <t>タスクに関する情報を保持するテーブル</t>
-  </si>
-  <si>
-    <t>タスクid</t>
-  </si>
-  <si>
-    <t>タスク内容</t>
-  </si>
-  <si>
-    <t>担当者id</t>
-  </si>
-  <si>
-    <t>期限日時</t>
-  </si>
-  <si>
-    <t>limited_time</t>
-  </si>
-  <si>
-    <t>完了フラグ</t>
-  </si>
-  <si>
-    <t>is_completed</t>
-  </si>
-  <si>
-    <t>1.完了済み</t>
-  </si>
-  <si>
-    <t>posts</t>
-  </si>
-  <si>
-    <t>投稿に関する情報を保持するテーブル</t>
-  </si>
-  <si>
-    <t>投稿id</t>
-  </si>
-  <si>
-    <t>投稿内容</t>
-  </si>
-  <si>
-    <t>投稿ユーザーid</t>
-  </si>
-  <si>
-    <t>投稿日時</t>
-  </si>
-  <si>
-    <t>添付ファイル名</t>
-  </si>
-  <si>
-    <t>added_file</t>
-  </si>
 </sst>
 </file>
 
@@ -963,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1027,6 +1024,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1246,6 +1246,1534 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="B5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="25"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="6">
+        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="17">
+        <v>11</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="25"/>
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="17">
+        <v>100</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="25"/>
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="17">
+        <v>100</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="25"/>
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="17">
+        <v>100</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="25"/>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="25"/>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="17">
+        <v>12</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="25"/>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="17">
+        <v>13</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="25"/>
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="25"/>
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="18">
+        <v>11</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="25"/>
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="25"/>
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="18">
+        <v>11</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="25"/>
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="17">
+        <v>11</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="17">
+        <v>100</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A22" s="25"/>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="17">
+        <v>11</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="25"/>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="17">
+        <v>100</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A28" s="25"/>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A29" s="25"/>
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="17">
+        <v>1</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="17">
+        <v>1</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A31" s="25"/>
+      <c r="B31" s="6">
+        <v>6</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="17">
+        <v>1</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A32" s="25"/>
+      <c r="B32" s="6">
+        <v>7</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="17">
+        <v>11</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="21"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A33" s="25"/>
+      <c r="B33" s="6">
+        <v>8</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A34" s="25"/>
+      <c r="B34" s="6">
+        <v>9</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="17">
+        <v>11</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A35" s="25"/>
+      <c r="B35" s="6">
+        <v>10</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A39" s="25"/>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="17">
+        <v>11</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A40" s="25"/>
+      <c r="B40" s="6">
+        <v>2</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="17">
+        <v>11</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="14"/>
+      <c r="K40" s="21"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A41" s="25"/>
+      <c r="B41" s="6">
+        <v>3</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A42" s="25"/>
+      <c r="B42" s="6">
+        <v>4</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="17">
+        <v>11</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A43" s="25"/>
+      <c r="B43" s="6">
+        <v>5</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A44" s="25"/>
+      <c r="B44" s="6">
+        <v>6</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="17">
+        <v>1</v>
+      </c>
+      <c r="G44" s="18">
+        <v>0</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A45" s="25"/>
+      <c r="B45" s="6">
+        <v>7</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="17">
+        <v>11</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J45" s="21"/>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A46" s="25"/>
+      <c r="B46" s="6">
+        <v>8</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A47" s="25"/>
+      <c r="B47" s="6">
+        <v>9</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="17">
+        <v>11</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A48" s="25"/>
+      <c r="B48" s="6">
+        <v>10</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="18"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A49" s="25"/>
+      <c r="B49" s="6">
+        <v>11</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="18">
+        <v>1</v>
+      </c>
+      <c r="G49" s="18">
+        <v>0</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="31"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A53" s="25"/>
+      <c r="B53" s="6">
+        <v>1</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="17">
+        <v>11</v>
+      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A54" s="25"/>
+      <c r="B54" s="6">
+        <v>2</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="17">
+        <v>11</v>
+      </c>
+      <c r="G54" s="21"/>
+      <c r="H54" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J54" s="14"/>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A55" s="25"/>
+      <c r="B55" s="6">
+        <v>3</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A56" s="25"/>
+      <c r="B56" s="6">
+        <v>4</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="17">
+        <v>11</v>
+      </c>
+      <c r="G56" s="18"/>
+      <c r="H56" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A57" s="25"/>
+      <c r="B57" s="6">
+        <v>5</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="17"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A58" s="25"/>
+      <c r="B58" s="6">
+        <v>6</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="17">
+        <v>11</v>
+      </c>
+      <c r="G58" s="18"/>
+      <c r="H58" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A59" s="25"/>
+      <c r="B59" s="6">
+        <v>7</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="17"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="16"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A60" s="25"/>
+      <c r="B60" s="6">
+        <v>8</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="17">
+        <v>1</v>
+      </c>
+      <c r="G60" s="18">
+        <v>0</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A61" s="25"/>
+      <c r="B61" s="6">
+        <v>9</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="17">
+        <v>100</v>
+      </c>
+      <c r="G61" s="17"/>
+      <c r="H61" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="16"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1263,7 +2791,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="8"/>
@@ -1296,19 +2824,19 @@
     <row r="2" spans="1:28">
       <c r="A2" s="8"/>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1341,10 +2869,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="24" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -32185,7 +33713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -32193,7 +33721,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="D8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -32210,10 +33738,10 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -32229,10 +33757,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -32248,10 +33776,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -32268,34 +33796,34 @@
     <row r="4" spans="1:13">
       <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
@@ -32307,26 +33835,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="F5" s="17">
         <v>11</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="19" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="25"/>
@@ -32339,20 +33867,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="F6" s="17">
         <v>100</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="19" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -32367,13 +33895,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="F7" s="17">
         <v>1000</v>
@@ -32393,13 +33921,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="F8" s="17">
         <v>1</v>
@@ -32408,12 +33936,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="22" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
@@ -32425,18 +33953,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="21"/>
       <c r="H9" s="20" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -32451,20 +33979,20 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="F10" s="17">
         <v>11</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="20" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -32479,18 +34007,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="21"/>
       <c r="H11" s="20" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -32505,20 +34033,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="F12" s="17">
         <v>11</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="19" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -32536,1538 +34064,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K63"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="6">
-        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="17">
-        <v>11</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
-      <c r="B6" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="17">
-        <v>100</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
-      <c r="B7" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="17">
-        <v>100</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
-      <c r="B8" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="17">
-        <v>100</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
-      <c r="B9" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
-      <c r="B10" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="17">
-        <v>12</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
-      <c r="B11" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="17">
-        <v>13</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
-      <c r="B12" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="17">
-        <v>1</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
-      <c r="B13" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="18">
-        <v>11</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
-      <c r="B14" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
-      <c r="B15" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="18">
-        <v>11</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
-      <c r="B16" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="6">
-        <v>1</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="17">
-        <v>11</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="6">
-        <v>2</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="17">
-        <v>100</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="6">
-        <v>3</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="17">
-        <v>11</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="6">
-        <v>2</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="17">
-        <v>100</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="6">
-        <v>3</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="6">
-        <v>4</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="17">
-        <v>1</v>
-      </c>
-      <c r="G29" s="18">
-        <v>0</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="6">
-        <v>5</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="17">
-        <v>1</v>
-      </c>
-      <c r="G30" s="18">
-        <v>0</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="6">
-        <v>6</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="17">
-        <v>1</v>
-      </c>
-      <c r="G31" s="18">
-        <v>0</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="6">
-        <v>7</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="17">
-        <v>11</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="6">
-        <v>8</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="6">
-        <v>9</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" s="17">
-        <v>11</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="16"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="6">
-        <v>10</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="6">
-        <v>1</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="17">
-        <v>11</v>
-      </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K39" s="21"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="6">
-        <v>2</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="17">
-        <v>11</v>
-      </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="21"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="6">
-        <v>3</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="6">
-        <v>4</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" s="17">
-        <v>11</v>
-      </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="6">
-        <v>5</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="6">
-        <v>6</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" s="17">
-        <v>1</v>
-      </c>
-      <c r="G44" s="18">
-        <v>0</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="6">
-        <v>7</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="17">
-        <v>11</v>
-      </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="16"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="6">
-        <v>8</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="16"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="6">
-        <v>9</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" s="17">
-        <v>11</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J47" s="21"/>
-      <c r="K47" s="16"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="6">
-        <v>10</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-    </row>
-    <row r="49" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="6">
-        <v>11</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F49" s="18">
-        <v>1</v>
-      </c>
-      <c r="G49" s="18">
-        <v>0</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="6">
-        <v>1</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F53" s="17">
-        <v>11</v>
-      </c>
-      <c r="G53" s="21"/>
-      <c r="H53" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J53" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K53" s="21"/>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="6">
-        <v>2</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" s="17">
-        <v>11</v>
-      </c>
-      <c r="G54" s="21"/>
-      <c r="H54" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="21"/>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="6">
-        <v>3</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G55" s="21"/>
-      <c r="H55" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="6">
-        <v>4</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56" s="17">
-        <v>11</v>
-      </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I56" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="6">
-        <v>5</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="6">
-        <v>6</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F58" s="17">
-        <v>11</v>
-      </c>
-      <c r="G58" s="18"/>
-      <c r="H58" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I58" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A59" s="25"/>
-      <c r="B59" s="6">
-        <v>7</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="16"/>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A60" s="25"/>
-      <c r="B60" s="6">
-        <v>8</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F60" s="17">
-        <v>1</v>
-      </c>
-      <c r="G60" s="18">
-        <v>0</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="6">
-        <v>9</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F61" s="17">
-        <v>100</v>
-      </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="16"/>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22924"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="436" documentId="11_3E21DB30A2484D11841266A29219685ED151E7F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5E498AF0-92F6-4098-BE03-7833CED1D458}"/>
+  <xr:revisionPtr revIDLastSave="454" documentId="11_3E21DB30A2484D11841266A29219685ED151E7F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D45F721D-E84D-45AF-8EA1-70DDF6C147BB}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="テンプレート" sheetId="2" r:id="rId1"/>
-    <sheet name="改訂履歴" sheetId="1" r:id="rId2"/>
-    <sheet name="記入例" sheetId="3" r:id="rId3"/>
+    <sheet name="記入例" sheetId="3" r:id="rId1"/>
+    <sheet name="usersテーブル" sheetId="7" r:id="rId2"/>
+    <sheet name="chat_membersテーブル" sheetId="6" r:id="rId3"/>
+    <sheet name="chat_roomsテーブル" sheetId="5" r:id="rId4"/>
+    <sheet name="tasksテーブル" sheetId="4" r:id="rId5"/>
+    <sheet name="postsテーブル" sheetId="2" r:id="rId6"/>
+    <sheet name="改訂履歴" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,21 +31,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="121">
   <si>
     <t>テーブル名</t>
   </si>
   <si>
-    <t>users</t>
+    <t>table_names</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>役割</t>
   </si>
   <si>
-    <t>ユーザーに関する情報を保持するテーブル</t>
+    <t>テーブルに関する情報を保持するテーブル</t>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>備考</t>
+  </si>
+  <si>
+    <t>備考があれば記入する</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>#</t>
@@ -166,264 +191,6 @@
   </si>
   <si>
     <t>その他設定</t>
-  </si>
-  <si>
-    <t>ユーザーid</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>auto_increment</t>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>表示名</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>自己紹介</t>
-  </si>
-  <si>
-    <t>self_intro</t>
-  </si>
-  <si>
-    <t>勤務先電話番号</t>
-  </si>
-  <si>
-    <t>company_phone</t>
-  </si>
-  <si>
-    <t>携帯電話番号</t>
-  </si>
-  <si>
-    <t>cell_phone</t>
-  </si>
-  <si>
-    <t>削除フラグ</t>
-  </si>
-  <si>
-    <t>is_deleted</t>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>1.削除済み</t>
-  </si>
-  <si>
-    <t>作成ユーザーid</t>
-  </si>
-  <si>
-    <t>create_user_id</t>
-  </si>
-  <si>
-    <t>作成日時</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>更新ユーザーid</t>
-  </si>
-  <si>
-    <t>update_user_id</t>
-  </si>
-  <si>
-    <t>更新日時</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>chat_members</t>
-  </si>
-  <si>
-    <t>チャットルームに参加しているユーザーに関する情報を保持するテーブル</t>
-  </si>
-  <si>
-    <t>チャットルームid</t>
-  </si>
-  <si>
-    <t>chat_id</t>
-  </si>
-  <si>
-    <t>PK/FK</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>参加日時</t>
-  </si>
-  <si>
-    <t>join_time</t>
-  </si>
-  <si>
-    <t>chat_rooms</t>
-  </si>
-  <si>
-    <t>チャットルームに関する情報を保持するテーブル</t>
-  </si>
-  <si>
-    <t>チャット名</t>
-  </si>
-  <si>
-    <t>概要</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>ファイル送信許可フラグ</t>
-  </si>
-  <si>
-    <t>is_sent</t>
-  </si>
-  <si>
-    <t>1.送信可</t>
-  </si>
-  <si>
-    <t>ダイレクトチャットフラグ</t>
-  </si>
-  <si>
-    <t>is_directed</t>
-  </si>
-  <si>
-    <t>1.ダイレクトチャット</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>tasks</t>
-  </si>
-  <si>
-    <t>タスクに関する情報を保持するテーブル</t>
-  </si>
-  <si>
-    <t>タスクid</t>
-  </si>
-  <si>
-    <t>タスク内容</t>
-  </si>
-  <si>
-    <t>担当者id</t>
-  </si>
-  <si>
-    <t>期限日時</t>
-  </si>
-  <si>
-    <t>limited_time</t>
-  </si>
-  <si>
-    <t>完了フラグ</t>
-  </si>
-  <si>
-    <t>is_completed</t>
-  </si>
-  <si>
-    <t>1.完了済み</t>
-  </si>
-  <si>
-    <t>posts</t>
-  </si>
-  <si>
-    <t>投稿に関する情報を保持するテーブル</t>
-  </si>
-  <si>
-    <t>投稿id</t>
-  </si>
-  <si>
-    <t>投稿内容</t>
-  </si>
-  <si>
-    <t>投稿ユーザーid</t>
-  </si>
-  <si>
-    <t>投稿日時</t>
-  </si>
-  <si>
-    <t>添付ファイル名</t>
-  </si>
-  <si>
-    <t>added_file</t>
-  </si>
-  <si>
-    <t>改定履歴</t>
-  </si>
-  <si>
-    <t>日付</t>
-  </si>
-  <si>
-    <t>アクション</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>編集者</t>
-  </si>
-  <si>
-    <t>テンプレート作成</t>
-  </si>
-  <si>
-    <t>alcoder</t>
-  </si>
-  <si>
-    <t>table_names</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>テーブルに関する情報を保持するテーブル</t>
-    <rPh sb="5" eb="6">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>備考があれば記入する</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -805,6 +572,243 @@
     <t>int</t>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>ユーザーに関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>ユーザーid</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>auto_increment</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>表示名</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>自己紹介</t>
+  </si>
+  <si>
+    <t>self_intro</t>
+  </si>
+  <si>
+    <t>勤務先電話番号</t>
+  </si>
+  <si>
+    <t>company_phone</t>
+  </si>
+  <si>
+    <t>携帯電話番号</t>
+  </si>
+  <si>
+    <t>cell_phone</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>1.削除済み</t>
+  </si>
+  <si>
+    <t>作成ユーザーid</t>
+  </si>
+  <si>
+    <t>create_user_id</t>
+  </si>
+  <si>
+    <t>作成日時</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>更新ユーザーid</t>
+  </si>
+  <si>
+    <t>update_user_id</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>chat_members</t>
+  </si>
+  <si>
+    <t>チャットルームに参加しているユーザーに関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>チャットルームid</t>
+  </si>
+  <si>
+    <t>chat_id</t>
+  </si>
+  <si>
+    <t>PK/FK</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>参加日時</t>
+  </si>
+  <si>
+    <t>join_time</t>
+  </si>
+  <si>
+    <t>chat_rooms</t>
+  </si>
+  <si>
+    <t>チャットルームに関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>チャット名</t>
+  </si>
+  <si>
+    <t>概要</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>ファイル送信許可フラグ</t>
+  </si>
+  <si>
+    <t>is_sent</t>
+  </si>
+  <si>
+    <t>1.送信可</t>
+  </si>
+  <si>
+    <t>ダイレクトチャットフラグ</t>
+  </si>
+  <si>
+    <t>is_directed</t>
+  </si>
+  <si>
+    <t>1.ダイレクトチャット</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>タスクに関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>タスクid</t>
+  </si>
+  <si>
+    <t>タスク内容</t>
+  </si>
+  <si>
+    <t>担当者id</t>
+  </si>
+  <si>
+    <t>期限日時</t>
+  </si>
+  <si>
+    <t>limited_time</t>
+  </si>
+  <si>
+    <t>完了フラグ</t>
+  </si>
+  <si>
+    <t>is_completed</t>
+  </si>
+  <si>
+    <t>1.完了済み</t>
+  </si>
+  <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>投稿に関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>投稿id</t>
+  </si>
+  <si>
+    <t>投稿内容</t>
+  </si>
+  <si>
+    <t>投稿ユーザーid</t>
+  </si>
+  <si>
+    <t>投稿日時</t>
+  </si>
+  <si>
+    <t>添付ファイル名</t>
+  </si>
+  <si>
+    <t>added_file</t>
+  </si>
+  <si>
+    <t>改定履歴</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>アクション</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>編集者</t>
+  </si>
+  <si>
+    <t>テンプレート作成</t>
+  </si>
+  <si>
+    <t>alcoder</t>
+  </si>
 </sst>
 </file>
 
@@ -960,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1010,28 +1014,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1246,15 +1249,1765 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="D5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="24"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="24"/>
+      <c r="B5" s="6">
+        <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="17">
+        <v>11</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="24"/>
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="17">
+        <v>100</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="24"/>
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="24"/>
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="24"/>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="24"/>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="17">
+        <v>11</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="24"/>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="24"/>
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="17">
+        <v>11</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F99499-9C9F-47D2-AF08-ED881F0D546C}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="24"/>
+    <col min="2" max="2" width="3.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="5.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="10" style="24" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B5" s="6">
+        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="17">
+        <v>11</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75">
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="17">
+        <v>100</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75">
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="17">
+        <v>100</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75">
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="17">
+        <v>100</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75">
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75">
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="17">
+        <v>12</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75">
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="17">
+        <v>13</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75">
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75">
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="18">
+        <v>11</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75">
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75">
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="18">
+        <v>11</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75">
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A00D319-EDDC-40A8-A0AA-7E1A65934C12}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="24"/>
+    <col min="2" max="2" width="3.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="5.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="10" style="24" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="17">
+        <v>11</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="17">
+        <v>100</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65644039-9E52-4E22-BD4D-338EAEC01829}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="24"/>
+    <col min="2" max="2" width="3.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="5.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="10" style="24" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="17">
+        <v>11</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="17">
+        <v>100</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B13" s="6">
+        <v>6</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B14" s="6">
+        <v>7</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="17">
+        <v>11</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B15" s="6">
+        <v>8</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B16" s="6">
+        <v>9</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="17">
+        <v>11</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B17" s="6">
+        <v>10</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C207DE-662F-40DA-86B9-6686795C82DC}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="24"/>
+    <col min="2" max="2" width="3.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="5.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="10" style="24" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="17">
+        <v>11</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="17">
+        <v>11</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="17">
+        <v>11</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B13" s="6">
+        <v>6</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B14" s="6">
+        <v>7</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="17">
+        <v>11</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B15" s="6">
+        <v>8</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B16" s="6">
+        <v>9</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="17">
+        <v>11</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B17" s="6">
+        <v>10</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B18" s="6">
+        <v>11</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="B5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1274,1498 +3027,987 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="B1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="B2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="6">
-        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A8" s="24"/>
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="C8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="17">
         <v>11</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
-      <c r="B6" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="17">
-        <v>100</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
-      <c r="B7" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="17">
-        <v>100</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
-      <c r="B8" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="17">
-        <v>100</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="24"/>
       <c r="B9" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F9" s="17">
+        <v>11</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="17">
         <v>1000</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
-      <c r="B10" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="17">
-        <v>12</v>
-      </c>
       <c r="G10" s="21"/>
-      <c r="H10" s="19"/>
+      <c r="H10" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A11" s="24"/>
       <c r="B11" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F11" s="17">
-        <v>13</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>95</v>
+      </c>
       <c r="J11" s="21"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="24"/>
       <c r="B12" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="17">
-        <v>1</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="19" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A13" s="24"/>
       <c r="B13" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="18">
+        <v>72</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="17">
         <v>11</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>95</v>
+      </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="24"/>
       <c r="B14" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>41</v>
+        <v>74</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="21"/>
       <c r="H14" s="19" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="24"/>
       <c r="B15" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="18">
-        <v>11</v>
-      </c>
-      <c r="G15" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
       <c r="H15" s="19" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
+      <c r="K15" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="24"/>
       <c r="B16" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="21"/>
+        <v>112</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="17">
+        <v>100</v>
+      </c>
+      <c r="G16" s="17"/>
       <c r="H16" s="19" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="6">
-        <v>1</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="17">
-        <v>11</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="21"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="6">
-        <v>2</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="17">
-        <v>100</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="6">
-        <v>3</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="17">
-        <v>11</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="6">
-        <v>2</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="17">
-        <v>100</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="21"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="6">
-        <v>3</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="6">
-        <v>4</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="17">
-        <v>1</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21" t="s">
-        <v>61</v>
-      </c>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="6">
-        <v>5</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="17">
-        <v>1</v>
-      </c>
-      <c r="G30" s="18">
-        <v>0</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="6">
-        <v>6</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="17">
-        <v>1</v>
-      </c>
-      <c r="G31" s="18">
-        <v>0</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="6">
-        <v>7</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="17">
-        <v>11</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="16"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="6">
-        <v>8</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="16"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="6">
-        <v>9</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="17">
-        <v>11</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="16"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="6">
-        <v>10</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="6">
-        <v>1</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="17">
-        <v>11</v>
-      </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" s="21"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="6">
-        <v>2</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="17">
-        <v>11</v>
-      </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="21"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="6">
-        <v>3</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="6">
-        <v>4</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="17">
-        <v>11</v>
-      </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="6">
-        <v>5</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="6">
-        <v>6</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="17">
-        <v>1</v>
-      </c>
-      <c r="G44" s="18">
-        <v>0</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21" t="s">
-        <v>75</v>
-      </c>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="6">
-        <v>7</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="17">
-        <v>11</v>
-      </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="16"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="6">
-        <v>8</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="16"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="6">
-        <v>9</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="17">
-        <v>11</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J47" s="21"/>
-      <c r="K47" s="16"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="6">
-        <v>10</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-    </row>
-    <row r="49" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="6">
-        <v>11</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" s="18">
-        <v>1</v>
-      </c>
-      <c r="G49" s="18">
-        <v>0</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="6">
-        <v>1</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="17">
-        <v>11</v>
-      </c>
-      <c r="G53" s="21"/>
-      <c r="H53" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K53" s="21"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="6">
-        <v>2</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="17">
-        <v>11</v>
-      </c>
-      <c r="G54" s="21"/>
-      <c r="H54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="21"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="6">
-        <v>3</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G55" s="21"/>
-      <c r="H55" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="6">
-        <v>4</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="17">
-        <v>11</v>
-      </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="6">
-        <v>5</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="6">
-        <v>6</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="17">
-        <v>11</v>
-      </c>
-      <c r="G58" s="18"/>
-      <c r="H58" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A59" s="25"/>
-      <c r="B59" s="6">
-        <v>7</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="16"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A60" s="25"/>
-      <c r="B60" s="6">
-        <v>8</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="17">
-        <v>1</v>
-      </c>
-      <c r="G60" s="18">
-        <v>0</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="6">
-        <v>9</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="17">
-        <v>100</v>
-      </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="16"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B19:D19"/>
+  <mergeCells count="6">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2773,7 +4015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2791,7 +4033,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="8"/>
@@ -2824,19 +4066,19 @@
     <row r="2" spans="1:28">
       <c r="A2" s="8"/>
       <c r="B2" s="5" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -2868,11 +4110,11 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="24" t="s">
-        <v>89</v>
+      <c r="E3" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -33711,357 +34953,4 @@
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:M12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="D8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="25"/>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="25"/>
-      <c r="B5" s="6">
-        <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="17">
-        <v>11</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="25"/>
-      <c r="B6" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="17">
-        <v>100</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="25"/>
-      <c r="B7" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="25"/>
-      <c r="B8" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="17">
-        <v>1</v>
-      </c>
-      <c r="G8" s="21">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="25"/>
-      <c r="B9" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="25"/>
-      <c r="B10" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="17">
-        <v>11</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="25"/>
-      <c r="B11" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="25"/>
-      <c r="B12" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="17">
-        <v>11</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22924"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="454" documentId="11_3E21DB30A2484D11841266A29219685ED151E7F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D45F721D-E84D-45AF-8EA1-70DDF6C147BB}"/>
+  <xr:revisionPtr revIDLastSave="469" documentId="11_3E21DB30A2484D11841266A29219685ED151E7F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1441B6DB-B46C-4AA1-BD72-36217FD6A4CE}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="記入例" sheetId="3" r:id="rId1"/>
-    <sheet name="usersテーブル" sheetId="7" r:id="rId2"/>
-    <sheet name="chat_membersテーブル" sheetId="6" r:id="rId3"/>
-    <sheet name="chat_roomsテーブル" sheetId="5" r:id="rId4"/>
-    <sheet name="tasksテーブル" sheetId="4" r:id="rId5"/>
-    <sheet name="postsテーブル" sheetId="2" r:id="rId6"/>
+    <sheet name="postsテーブル" sheetId="2" r:id="rId1"/>
+    <sheet name="記入例" sheetId="3" r:id="rId2"/>
+    <sheet name="usersテーブル" sheetId="7" r:id="rId3"/>
+    <sheet name="chat_membersテーブル" sheetId="6" r:id="rId4"/>
+    <sheet name="chat_roomsテーブル" sheetId="5" r:id="rId5"/>
+    <sheet name="tasksテーブル" sheetId="4" r:id="rId6"/>
     <sheet name="改訂履歴" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -31,42 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="121">
   <si>
     <t>テーブル名</t>
   </si>
   <si>
-    <t>table_names</t>
-    <phoneticPr fontId="6"/>
+    <t xml:space="preserve">posts		</t>
   </si>
   <si>
     <t>役割</t>
   </si>
   <si>
-    <t>テーブルに関する情報を保持するテーブル</t>
-    <rPh sb="5" eb="6">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
+    <t>投稿に関する情報を保持するテーブル</t>
   </si>
   <si>
     <t>備考</t>
-  </si>
-  <si>
-    <t>備考があれば記入する</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>#</t>
@@ -191,6 +170,114 @@
   </si>
   <si>
     <t>その他設定</t>
+  </si>
+  <si>
+    <t>投稿id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>auto_increment</t>
+  </si>
+  <si>
+    <t>チャットルームid</t>
+  </si>
+  <si>
+    <t>chat_id</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>投稿内容</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>投稿ユーザーid</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>投稿日時</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>更新ユーザーid</t>
+  </si>
+  <si>
+    <t>update_user_id</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>1.削除済み</t>
+  </si>
+  <si>
+    <t>添付ファイル名</t>
+  </si>
+  <si>
+    <t>added_file</t>
+  </si>
+  <si>
+    <t>table_names</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テーブルに関する情報を保持するテーブル</t>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>備考があれば記入する</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -582,28 +669,10 @@
     <t>ユーザーid</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>auto_increment</t>
-  </si>
-  <si>
     <t>メールアドレス</t>
   </si>
   <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>varchar</t>
   </si>
   <si>
     <t>パスワード</t>
@@ -636,18 +705,6 @@
     <t>cell_phone</t>
   </si>
   <si>
-    <t>削除フラグ</t>
-  </si>
-  <si>
-    <t>is_deleted</t>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>1.削除済み</t>
-  </si>
-  <si>
     <t>作成ユーザーid</t>
   </si>
   <si>
@@ -657,40 +714,13 @@
     <t>作成日時</t>
   </si>
   <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>更新ユーザーid</t>
-  </si>
-  <si>
-    <t>update_user_id</t>
-  </si>
-  <si>
-    <t>更新日時</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
     <t>chat_members</t>
   </si>
   <si>
     <t>チャットルームに参加しているユーザーに関する情報を保持するテーブル</t>
   </si>
   <si>
-    <t>チャットルームid</t>
-  </si>
-  <si>
-    <t>chat_id</t>
-  </si>
-  <si>
     <t>PK/FK</t>
-  </si>
-  <si>
-    <t>user_id</t>
   </si>
   <si>
     <t>参加日時</t>
@@ -711,9 +741,6 @@
     <t>概要</t>
   </si>
   <si>
-    <t>detail</t>
-  </si>
-  <si>
     <t>ファイル送信許可フラグ</t>
   </si>
   <si>
@@ -730,9 +757,6 @@
   </si>
   <si>
     <t>1.ダイレクトチャット</t>
-  </si>
-  <si>
-    <t>FK</t>
   </si>
   <si>
     <t>tasks</t>
@@ -765,30 +789,6 @@
     <t>1.完了済み</t>
   </si>
   <si>
-    <t>posts</t>
-  </si>
-  <si>
-    <t>投稿に関する情報を保持するテーブル</t>
-  </si>
-  <si>
-    <t>投稿id</t>
-  </si>
-  <si>
-    <t>投稿内容</t>
-  </si>
-  <si>
-    <t>投稿ユーザーid</t>
-  </si>
-  <si>
-    <t>投稿日時</t>
-  </si>
-  <si>
-    <t>添付ファイル名</t>
-  </si>
-  <si>
-    <t>added_file</t>
-  </si>
-  <si>
     <t>改定履歴</t>
   </si>
   <si>
@@ -814,7 +814,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -887,11 +887,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -919,7 +914,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -942,29 +937,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1016,25 +993,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1249,6 +1215,1010 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A5:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="25"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="17">
+        <v>11</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="17">
+        <v>11</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="17">
+        <v>11</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="17">
+        <v>11</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="6">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="6">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="17">
+        <v>100</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1275,168 +2245,168 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="B1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="B2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="25"/>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="24"/>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="6">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F5" s="17">
         <v>11</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="19" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K5" s="21"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F6" s="17">
         <v>100</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="19" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F7" s="17">
         <v>1000</v>
@@ -1446,23 +2416,23 @@
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F8" s="17">
         <v>1</v>
@@ -1471,123 +2441,123 @@
         <v>0</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+        <v>59</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="21"/>
       <c r="H9" s="20" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F10" s="17">
         <v>11</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="20" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="24"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="21"/>
       <c r="H11" s="20" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F12" s="17">
         <v>11</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="19" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1601,7 +2571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F99499-9C9F-47D2-AF08-ED881F0D546C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1633,179 +2603,206 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="25"/>
       <c r="B5" s="6">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F5" s="17">
         <v>11</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="25"/>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F6" s="17">
         <v>100</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="25"/>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F7" s="17">
         <v>100</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="25"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F8" s="17">
         <v>100</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="25"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F9" s="17">
         <v>1000</v>
@@ -1817,18 +2814,19 @@
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="25"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F10" s="17">
         <v>12</v>
@@ -1840,18 +2838,19 @@
       <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="25"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F11" s="17">
         <v>13</v>
@@ -1863,18 +2862,19 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="25"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F12" s="17">
         <v>1</v>
@@ -1883,105 +2883,109 @@
         <v>0</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="16" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="25"/>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F13" s="18">
         <v>11</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="25"/>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="21"/>
       <c r="H14" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="25"/>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F15" s="18">
         <v>11</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="25"/>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="21"/>
       <c r="H16" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
@@ -1999,7 +3003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A00D319-EDDC-40A8-A0AA-7E1A65934C12}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2008,7 +3012,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2031,176 +3035,209 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="17">
+        <v>11</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="17">
+        <v>100</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="17">
-        <v>11</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="21"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="17">
-        <v>100</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="21"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B10" s="6">
-        <v>3</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2208,7 +3245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65644039-9E52-4E22-BD4D-338EAEC01829}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2217,7 +3254,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2240,349 +3277,389 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="17">
+        <v>11</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="17">
+        <v>100</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18">
         <v>0</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B8" s="6">
+      <c r="H9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="17">
-        <v>11</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="17">
-        <v>100</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B10" s="6">
-        <v>3</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="K10" s="21" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A11" s="25"/>
       <c r="B11" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G11" s="21"/>
       <c r="H11" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="J11" s="21"/>
-      <c r="K11" s="21" t="s">
-        <v>91</v>
-      </c>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="25"/>
       <c r="B12" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="17">
-        <v>1</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21" t="s">
-        <v>94</v>
-      </c>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A13" s="25"/>
       <c r="B13" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="F13" s="17">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G13" s="17"/>
       <c r="H13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="J13" s="21"/>
-      <c r="K13" s="21" t="s">
-        <v>66</v>
-      </c>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="25"/>
       <c r="B14" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="17">
-        <v>11</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="18"/>
       <c r="G14" s="21"/>
       <c r="H14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I14" s="21"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="16"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B15" s="6">
-        <v>8</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="16"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="6">
-        <v>9</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="17">
-        <v>11</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B17" s="6">
-        <v>10</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -2593,7 +3670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C207DE-662F-40DA-86B9-6686795C82DC}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2602,7 +3679,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2625,369 +3702,410 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="17">
+        <v>11</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="17">
+        <v>11</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
       <c r="C8" s="13" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F8" s="17">
         <v>11</v>
       </c>
-      <c r="G8" s="21"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>49</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="21"/>
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="25"/>
       <c r="B9" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="17">
-        <v>11</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="25"/>
       <c r="B10" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F10" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="K10" s="21" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A11" s="25"/>
       <c r="B11" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F11" s="17">
         <v>11</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="25"/>
       <c r="B12" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A13" s="25"/>
       <c r="B13" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="F13" s="17">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="J13" s="21"/>
-      <c r="K13" s="21" t="s">
-        <v>105</v>
-      </c>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="25"/>
       <c r="B14" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="17">
-        <v>11</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="18"/>
       <c r="G14" s="21"/>
       <c r="H14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I14" s="21"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="16"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="25"/>
       <c r="B15" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="21"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
       <c r="H15" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="16"/>
+      <c r="K15" s="21" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="6">
-        <v>9</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="17">
-        <v>11</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B17" s="6">
-        <v>10</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B18" s="6">
-        <v>11</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21" t="s">
-        <v>66</v>
-      </c>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -2995,1023 +4113,6 @@
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K63"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="17">
-        <v>11</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="17">
-        <v>11</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="6">
-        <v>3</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="6">
-        <v>4</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="17">
-        <v>11</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="6">
-        <v>5</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="6">
-        <v>6</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="17">
-        <v>11</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="6">
-        <v>7</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="6">
-        <v>8</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="6">
-        <v>9</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="17">
-        <v>100</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="469" documentId="11_3E21DB30A2484D11841266A29219685ED151E7F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1441B6DB-B46C-4AA1-BD72-36217FD6A4CE}"/>
+  <xr:revisionPtr revIDLastSave="471" documentId="11_3E21DB30A2484D11841266A29219685ED151E7F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9107243-33A4-4700-9BCD-B134B38970DF}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="postsテーブル" sheetId="2" r:id="rId1"/>
     <sheet name="記入例" sheetId="3" r:id="rId2"/>
     <sheet name="usersテーブル" sheetId="7" r:id="rId3"/>
     <sheet name="chat_membersテーブル" sheetId="6" r:id="rId4"/>
-    <sheet name="chat_roomsテーブル" sheetId="5" r:id="rId5"/>
-    <sheet name="tasksテーブル" sheetId="4" r:id="rId6"/>
+    <sheet name="tasksテーブル" sheetId="4" r:id="rId5"/>
+    <sheet name="chat_roomsテーブル" sheetId="5" r:id="rId6"/>
     <sheet name="改訂履歴" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="121">
   <si>
     <t>テーブル名</t>
   </si>
@@ -729,6 +729,36 @@
     <t>join_time</t>
   </si>
   <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>タスクに関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>タスクid</t>
+  </si>
+  <si>
+    <t>タスク内容</t>
+  </si>
+  <si>
+    <t>担当者id</t>
+  </si>
+  <si>
+    <t>期限日時</t>
+  </si>
+  <si>
+    <t>limited_time</t>
+  </si>
+  <si>
+    <t>完了フラグ</t>
+  </si>
+  <si>
+    <t>is_completed</t>
+  </si>
+  <si>
+    <t>1.完了済み</t>
+  </si>
+  <si>
     <t>chat_rooms</t>
   </si>
   <si>
@@ -757,36 +787,6 @@
   </si>
   <si>
     <t>1.ダイレクトチャット</t>
-  </si>
-  <si>
-    <t>tasks</t>
-  </si>
-  <si>
-    <t>タスクに関する情報を保持するテーブル</t>
-  </si>
-  <si>
-    <t>タスクid</t>
-  </si>
-  <si>
-    <t>タスク内容</t>
-  </si>
-  <si>
-    <t>担当者id</t>
-  </si>
-  <si>
-    <t>期限日時</t>
-  </si>
-  <si>
-    <t>limited_time</t>
-  </si>
-  <si>
-    <t>完了フラグ</t>
-  </si>
-  <si>
-    <t>is_completed</t>
-  </si>
-  <si>
-    <t>1.完了済み</t>
   </si>
   <si>
     <t>改定履歴</t>
@@ -995,12 +995,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1221,9 +1221,9 @@
   </sheetPr>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A5:XFD7"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1243,11 +1243,11 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -1260,11 +1260,11 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -1277,9 +1277,9 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
@@ -1549,9 +1549,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="17"/>
-      <c r="H13" s="19" t="s">
-        <v>17</v>
-      </c>
+      <c r="H13" s="19"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="16"/>
@@ -2245,11 +2243,11 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -2264,11 +2262,11 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -2283,11 +2281,11 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
@@ -2603,11 +2601,11 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -2620,11 +2618,11 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -2637,9 +2635,9 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
@@ -3035,11 +3033,11 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -3052,11 +3050,11 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -3069,9 +3067,9 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
@@ -3246,6 +3244,452 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C207DE-662F-40DA-86B9-6686795C82DC}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="24"/>
+    <col min="2" max="2" width="3.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="5.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="10" style="24" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="25"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="17">
+        <v>11</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="17">
+        <v>11</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="17">
+        <v>11</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="17">
+        <v>11</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="6">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="6">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="17">
+        <v>11</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="6">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="6">
+        <v>11</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65644039-9E52-4E22-BD4D-338EAEC01829}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3277,11 +3721,11 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -3294,11 +3738,11 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -3311,9 +3755,9 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
@@ -3390,7 +3834,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>79</v>
@@ -3415,7 +3859,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>25</v>
@@ -3438,10 +3882,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>37</v>
@@ -3458,7 +3902,7 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
@@ -3467,10 +3911,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>37</v>
@@ -3487,7 +3931,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
@@ -3657,452 +4101,6 @@
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C207DE-662F-40DA-86B9-6686795C82DC}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="24"/>
-    <col min="2" max="2" width="3.140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="5.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="10" style="24" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="17">
-        <v>11</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="17">
-        <v>11</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="6">
-        <v>3</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="6">
-        <v>4</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="17">
-        <v>11</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="6">
-        <v>5</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="6">
-        <v>6</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="6">
-        <v>7</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="17">
-        <v>11</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="6">
-        <v>8</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="6">
-        <v>9</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="17">
-        <v>11</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="6">
-        <v>10</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="6">
-        <v>11</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="18">
-        <v>1</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23028"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7D310E2-07E1-41D3-8641-084058D18CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FD8A8C5-6517-49FF-9461-D7E7906D51C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="124">
   <si>
     <t>改定履歴</t>
   </si>
@@ -687,6 +687,9 @@
     <t>誰がどのチャットルームに入っているかを管理するテーブル</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
     <t>外部キー</t>
   </si>
   <si>
@@ -720,7 +723,7 @@
     <t>ファイル送信フラグ</t>
   </si>
   <si>
-    <t>File_transmission_flag</t>
+    <t>file_transmission_flag</t>
   </si>
   <si>
     <t>1:ファイル送信不可</t>
@@ -787,6 +790,9 @@
   </si>
   <si>
     <t>task_content</t>
+  </si>
+  <si>
+    <t>vachar</t>
   </si>
   <si>
     <t>タスク担当者</t>
@@ -30933,7 +30939,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31339,8 +31345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE89709F-5CCC-431E-8C49-B6D6BBD2ED5F}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31448,7 +31454,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>57</v>
@@ -31465,7 +31471,7 @@
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -31475,10 +31481,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>57</v>
@@ -31495,7 +31501,7 @@
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -31505,17 +31511,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="18"/>
+      <c r="H7" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
@@ -31678,8 +31686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EB1C5-6F13-414B-8AF4-B4A35031AAB7}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31719,7 +31727,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -31786,10 +31794,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>57</v>
@@ -31816,10 +31824,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>61</v>
@@ -31842,10 +31850,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>61</v>
@@ -31866,10 +31874,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>41</v>
@@ -31886,7 +31894,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -31896,10 +31904,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>41</v>
@@ -31916,7 +31924,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -31929,7 +31937,7 @@
         <v>73</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>41</v>
@@ -31956,10 +31964,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>57</v>
@@ -31974,7 +31982,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="32"/>
       <c r="K11" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -31984,10 +31992,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>57</v>
@@ -32002,7 +32010,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -32141,7 +32149,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -32208,10 +32216,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>57</v>
@@ -32238,10 +32246,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>57</v>
@@ -32256,7 +32264,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -32266,10 +32274,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>61</v>
@@ -32292,10 +32300,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>61</v>
@@ -32319,7 +32327,7 @@
         <v>73</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>41</v>
@@ -32346,10 +32354,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>57</v>
@@ -32364,7 +32372,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="32"/>
       <c r="K10" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -32374,10 +32382,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>57</v>
@@ -32392,7 +32400,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -32505,7 +32513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592C2A90-909A-4668-97B7-520C2E3A0767}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -32548,7 +32556,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -32618,10 +32626,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>57</v>
@@ -32649,10 +32657,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>57</v>
@@ -32667,7 +32675,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" s="32"/>
     </row>
@@ -32678,13 +32686,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F7" s="42">
         <v>1000</v>
@@ -32705,10 +32713,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>57</v>
@@ -32723,7 +32731,7 @@
       <c r="I8" s="26"/>
       <c r="J8" s="48"/>
       <c r="K8" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" s="32"/>
     </row>
@@ -32734,13 +32742,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="20"/>
@@ -32757,10 +32765,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>41</v>
@@ -32777,7 +32785,7 @@
       <c r="I10" s="45"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L10" s="32"/>
     </row>
@@ -32791,7 +32799,7 @@
         <v>73</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>41</v>
@@ -32819,10 +32827,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>57</v>
@@ -32837,7 +32845,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="32"/>
       <c r="K12" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="32"/>
     </row>
@@ -32848,10 +32856,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>57</v>
@@ -32866,7 +32874,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" s="32"/>
     </row>

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23028"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FD8A8C5-6517-49FF-9461-D7E7906D51C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61E5856F-4984-4021-AA9E-D168B457B4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
     <sheet name="記入例" sheetId="3" r:id="rId2"/>
     <sheet name="テンプレート" sheetId="2" r:id="rId3"/>
     <sheet name="ユーザー" sheetId="4" r:id="rId4"/>
-    <sheet name="参加者" sheetId="5" r:id="rId5"/>
-    <sheet name="チャットルーム" sheetId="6" r:id="rId6"/>
+    <sheet name="チャットルーム" sheetId="6" r:id="rId5"/>
+    <sheet name="参加者" sheetId="5" r:id="rId6"/>
     <sheet name="投稿" sheetId="7" r:id="rId7"/>
     <sheet name="タスク" sheetId="8" r:id="rId8"/>
   </sheets>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="119">
   <si>
     <t>改定履歴</t>
   </si>
@@ -633,9 +633,6 @@
     <t>varchar</t>
   </si>
   <si>
-    <t>UNIQUE</t>
-  </si>
-  <si>
     <t>パスワード</t>
   </si>
   <si>
@@ -657,55 +654,37 @@
     <t>勤務先電話番号</t>
   </si>
   <si>
-    <t>workplace_phone_number</t>
+    <t>office_telephone_number</t>
   </si>
   <si>
     <t>携帯電話番号</t>
   </si>
   <si>
-    <t>myphone_number</t>
+    <t>mobilephone_number</t>
   </si>
   <si>
     <t>論理削除フラグ</t>
   </si>
   <si>
-    <t>account_delete_flag</t>
+    <t>is_deleted</t>
   </si>
   <si>
     <t>作成日時</t>
   </si>
   <si>
-    <t>create_date_and_time</t>
+    <t>created_at</t>
   </si>
   <si>
     <t>更新日時</t>
   </si>
   <si>
-    <t>update_date_and_time</t>
+    <t>updated_at</t>
   </si>
   <si>
-    <t>誰がどのチャットルームに入っているかを管理するテーブル</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>外部キー</t>
+    <t>チャットルームの情報に関するテーブル</t>
   </si>
   <si>
     <t>チャットルームid</t>
-  </si>
-  <si>
-    <t>chatroom_id</t>
-  </si>
-  <si>
-    <t>参加日時</t>
-  </si>
-  <si>
-    <t>participation_date</t>
-  </si>
-  <si>
-    <t>チャットルームの情報に関するテーブル</t>
   </si>
   <si>
     <t>チャットルーム名</t>
@@ -738,28 +717,40 @@
     <t>1:ダイレクトチャットになる</t>
   </si>
   <si>
-    <t>chatroom_delete_flag</t>
-  </si>
-  <si>
     <t>作成者id</t>
   </si>
   <si>
-    <t>create_author</t>
+    <t>create_user</t>
+  </si>
+  <si>
+    <t>外部キー</t>
   </si>
   <si>
     <t>更新者id</t>
   </si>
   <si>
-    <t>update_author</t>
+    <t>update_user</t>
+  </si>
+  <si>
+    <t>誰がどのチャットルームに入っているかを管理するテーブル</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>chatroom_id</t>
+  </si>
+  <si>
+    <t>参加日時</t>
+  </si>
+  <si>
+    <t>participation_date</t>
   </si>
   <si>
     <t>投稿(チャットの中)に関するテーブル</t>
   </si>
   <si>
     <t>投稿id</t>
-  </si>
-  <si>
-    <t>post_id</t>
   </si>
   <si>
     <t>投稿内容</t>
@@ -774,16 +765,10 @@
     <t>file_name</t>
   </si>
   <si>
-    <t>post_content_delete_flag</t>
-  </si>
-  <si>
     <t>チャット内のタスクに関するテーブル</t>
   </si>
   <si>
     <t>タスクid</t>
-  </si>
-  <si>
-    <t>task_id</t>
   </si>
   <si>
     <t>タスク内容</t>
@@ -1109,8 +1094,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1151,6 +1134,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -30310,15 +30295,15 @@
       </c>
       <c r="C1" s="51"/>
       <c r="D1" s="51"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
@@ -30329,15 +30314,15 @@
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
@@ -30348,18 +30333,18 @@
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="32"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -30390,11 +30375,11 @@
       <c r="K4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="32"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30422,11 +30407,11 @@
         <v>32</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="32"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30450,11 +30435,11 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="33"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="32"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30476,11 +30461,11 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="32"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30508,11 +30493,11 @@
       <c r="K8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="32"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30534,11 +30519,11 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="32"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30562,11 +30547,11 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="32"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30588,11 +30573,11 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="32"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30616,8 +30601,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30659,13 +30644,13 @@
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -30674,13 +30659,13 @@
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -30689,16 +30674,16 @@
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="32"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -30731,7 +30716,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="32"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -30747,7 +30732,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="32"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30763,7 +30748,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="32"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30779,7 +30764,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="32"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30795,7 +30780,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="32"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30811,7 +30796,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="32"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30827,7 +30812,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="32"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30843,7 +30828,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="32"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30859,7 +30844,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="32"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30875,7 +30860,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="32"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30891,7 +30876,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="32"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -30907,7 +30892,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="32"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -30939,7 +30924,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -30964,13 +30949,13 @@
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
@@ -30981,13 +30966,13 @@
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
@@ -30996,16 +30981,16 @@
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="32"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -31038,7 +31023,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="32"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -31068,15 +31053,15 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="32"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="48" t="s">
         <v>60</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -31090,22 +31075,20 @@
         <v>30</v>
       </c>
       <c r="I6" s="20"/>
-      <c r="J6" s="32" t="s">
-        <v>62</v>
-      </c>
+      <c r="J6" s="48"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="32"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>61</v>
@@ -31122,16 +31105,16 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="32"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>61</v>
@@ -31148,16 +31131,16 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="32"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>61</v>
@@ -31172,16 +31155,16 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="32"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>61</v>
@@ -31196,16 +31179,16 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="32"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>61</v>
@@ -31216,22 +31199,20 @@
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="32" t="s">
-        <v>62</v>
-      </c>
+      <c r="J11" s="48"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="32"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>41</v>
@@ -31252,16 +31233,16 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="32"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>50</v>
@@ -31276,16 +31257,16 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="32"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>50</v>
@@ -31300,7 +31281,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="32"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31316,7 +31297,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="32"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31342,352 +31323,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE89709F-5CCC-431E-8C49-B6D6BBD2ED5F}">
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="25"/>
-    <col min="2" max="2" width="3.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="25"/>
-    <col min="6" max="6" width="5.28515625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="25" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="32"/>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="5">
-        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="16">
-        <v>11</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="32"/>
-      <c r="B6" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="16">
-        <v>11</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="32"/>
-      <c r="B7" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="32"/>
-      <c r="B8" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="32"/>
-      <c r="B9" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="32"/>
-      <c r="B10" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="32"/>
-      <c r="B11" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="32"/>
-      <c r="B12" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="32"/>
-      <c r="B13" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="32"/>
-      <c r="B14" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="32"/>
-      <c r="B15" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="32"/>
-      <c r="B16" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EB1C5-6F13-414B-8AF4-B4A35031AAB7}">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31714,30 +31354,30 @@
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
@@ -31746,16 +31386,16 @@
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="32"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -31788,16 +31428,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="32"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>83</v>
+      <c r="C5" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>56</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>57</v>
@@ -31818,16 +31458,16 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="32"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>61</v>
@@ -31844,40 +31484,40 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="32"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>89</v>
+      <c r="C7" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="48">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="32"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="32"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>41</v>
@@ -31894,20 +31534,20 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="32"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>41</v>
@@ -31924,20 +31564,20 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="32"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>41</v>
@@ -31958,16 +31598,16 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="32"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>57</v>
@@ -31980,22 +31620,22 @@
         <v>30</v>
       </c>
       <c r="I11" s="20"/>
-      <c r="J11" s="32"/>
+      <c r="J11" s="48"/>
       <c r="K11" s="20" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="32"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>57</v>
@@ -32010,20 +31650,20 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="32"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>50</v>
@@ -32038,16 +31678,16 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="32"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>50</v>
@@ -32062,7 +31702,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="32"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32078,7 +31718,348 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="32"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE89709F-5CCC-431E-8C49-B6D6BBD2ED5F}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="25"/>
+    <col min="2" max="2" width="3.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="25"/>
+    <col min="6" max="6" width="5.28515625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="25" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="48"/>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="48"/>
+      <c r="B5" s="5">
+        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="16">
+        <v>11</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="48"/>
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="16">
+        <v>11</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="48"/>
+      <c r="K6" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="48"/>
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="48"/>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="48"/>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="48"/>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="48"/>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="48"/>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="48"/>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="48"/>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="48"/>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="48"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32108,7 +32089,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -32136,30 +32117,30 @@
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
@@ -32168,16 +32149,16 @@
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="32"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -32210,16 +32191,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="32"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="27">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>57</v>
@@ -32240,16 +32221,16 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="32"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>57</v>
@@ -32264,20 +32245,20 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="20" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="32"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>61</v>
@@ -32294,40 +32275,40 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="32"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>107</v>
+      <c r="C8" s="48" t="s">
+        <v>104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="48">
         <v>100</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20"/>
-      <c r="J8" s="32"/>
+      <c r="J8" s="48"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="32"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>41</v>
@@ -32348,16 +32329,16 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="32"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>57</v>
@@ -32370,22 +32351,22 @@
         <v>30</v>
       </c>
       <c r="I10" s="20"/>
-      <c r="J10" s="32"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="20" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="32"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>57</v>
@@ -32400,20 +32381,20 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="32"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>50</v>
@@ -32428,16 +32409,16 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="32"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>50</v>
@@ -32452,7 +32433,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="32"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32468,7 +32449,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="32"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32484,7 +32465,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="32"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32514,7 +32495,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -32542,32 +32523,32 @@
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
@@ -32576,17 +32557,17 @@
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="32"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -32617,19 +32598,19 @@
       <c r="K4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="32"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="32"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="27">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>57</v>
@@ -32648,19 +32629,19 @@
         <v>32</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="32"/>
+      <c r="L5" s="48"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="32"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>57</v>
@@ -32675,53 +32656,53 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="32"/>
+        <v>92</v>
+      </c>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="32"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="42">
+      <c r="C7" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="40">
         <v>1000</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44" t="s">
+      <c r="G7" s="41"/>
+      <c r="H7" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="32"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="32"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="44">
         <v>11</v>
       </c>
       <c r="G8" s="26"/>
@@ -32729,108 +32710,108 @@
         <v>30</v>
       </c>
       <c r="I8" s="26"/>
-      <c r="J8" s="48"/>
+      <c r="J8" s="46"/>
       <c r="K8" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="32"/>
+        <v>92</v>
+      </c>
+      <c r="L8" s="48"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="32"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>118</v>
+      <c r="C9" s="43" t="s">
+        <v>113</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="47"/>
+        <v>114</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="45"/>
       <c r="G9" s="20"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="32"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="32"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>1</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="34">
         <v>0</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="45"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" s="32"/>
+        <v>118</v>
+      </c>
+      <c r="L10" s="48"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="32"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="33">
         <v>1</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <v>0</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="38" t="s">
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="32"/>
+      <c r="L11" s="48"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="32"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>57</v>
@@ -32843,23 +32824,23 @@
         <v>30</v>
       </c>
       <c r="I12" s="20"/>
-      <c r="J12" s="32"/>
+      <c r="J12" s="48"/>
       <c r="K12" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="32"/>
+        <v>92</v>
+      </c>
+      <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="32"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>57</v>
@@ -32874,21 +32855,21 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="32"/>
+        <v>92</v>
+      </c>
+      <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="32"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>50</v>
@@ -32901,19 +32882,19 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="32"/>
+      <c r="L14" s="48"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="32"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>50</v>
@@ -32926,10 +32907,10 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="32"/>
+      <c r="L15" s="48"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="32"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32943,7 +32924,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="32"/>
+      <c r="L16" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
